--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/UTAH_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/UTAH_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1097"/>
+  <dimension ref="A1:D1091"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C29">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C33">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C40">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C61">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C66">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C98">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C102">
@@ -1894,7 +1894,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C116">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C121">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2029,7 +2029,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C126">
@@ -2211,7 +2211,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2455,7 +2455,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C158">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C173">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C178">
@@ -2824,12 +2824,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C186">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C189">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C193">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C198">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C201">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C207">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C210">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C220">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C227">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C229">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C239">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C240">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C247">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C251">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C263">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C269">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C272">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C278">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C283">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C285">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C287">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C288">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C290">
@@ -4238,7 +4238,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C294">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C299">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C303">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C309">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C315">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C321">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C324">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C332">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C335">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C341">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C352">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C355">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C357">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C358">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C359">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C361">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C364">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C370">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C375">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C378">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C382">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C385">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C391">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C392">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C393">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C396">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C399">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C401">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C402">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C403">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C408">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C409">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C412">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C415">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C418">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C420">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C430">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C434">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C439">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C441">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C445">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C451">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C458">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C460">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C462">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C464">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C467">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C468">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C473">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C474">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C477">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C478">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C486">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C487">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C488">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C493">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C494">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C497">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C499">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C500">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7157,7 +7157,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C517">
@@ -8176,7 +8176,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C595">
@@ -8306,7 +8306,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C605">
@@ -8371,7 +8371,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C610">
@@ -8384,7 +8384,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C611">
@@ -8462,7 +8462,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C617">
@@ -8519,7 +8519,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C621">
@@ -8532,7 +8532,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C622">
@@ -8597,7 +8597,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C627">
@@ -8662,7 +8662,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C632">
@@ -8784,7 +8784,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C641">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C644">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C649">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C657">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C663">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C666">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C671">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C674">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C679">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C683">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C686">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C706">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C717">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C742">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C746">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C747">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C750">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C765">
@@ -10575,7 +10575,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C778">
@@ -10666,7 +10666,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C785">
@@ -10679,7 +10679,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C786">
@@ -10718,7 +10718,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C789">
@@ -10783,7 +10783,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C794">
@@ -10900,7 +10900,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C803">
@@ -11030,7 +11030,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C813">
@@ -11069,7 +11069,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C816">
@@ -11121,7 +11121,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C820">
@@ -11134,7 +11134,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C821">
@@ -11160,7 +11160,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C823">
@@ -11173,7 +11173,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C824">
@@ -11225,7 +11225,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C828">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C844">
@@ -11451,7 +11451,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C845">
@@ -11464,7 +11464,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C846">
@@ -11516,7 +11516,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C850">
@@ -11708,7 +11708,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C864">
@@ -11838,7 +11838,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C874">
@@ -11851,7 +11851,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C875">
@@ -11864,7 +11864,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C876">
@@ -12355,7 +12355,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C913">
@@ -12446,7 +12446,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C920">
@@ -12581,7 +12581,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C930">
@@ -12799,7 +12799,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C946">
@@ -12851,7 +12851,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C950">
@@ -12890,7 +12890,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C953">
@@ -12903,7 +12903,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C954">
@@ -13007,7 +13007,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -13077,7 +13077,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C967">
@@ -13129,7 +13129,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C971">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C984">
@@ -13311,7 +13311,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C985">
@@ -13428,7 +13428,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C994">
@@ -13441,7 +13441,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C995">
@@ -13454,7 +13454,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C996">
@@ -13571,7 +13571,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1005">
@@ -13636,7 +13636,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1010">
@@ -13714,7 +13714,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1016">
@@ -13740,7 +13740,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1018">
@@ -13844,7 +13844,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1026">
@@ -13870,7 +13870,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1028">
@@ -14335,7 +14335,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1063">
@@ -14478,7 +14478,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1074">
@@ -14595,7 +14595,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1083">
@@ -14608,7 +14608,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1084">
@@ -14647,7 +14647,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1087">
@@ -14699,7 +14699,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1091">
@@ -14707,41 +14707,6 @@
       </c>
       <c r="D1091">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1097">
-      <c r="A1097" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
